--- a/Question_Sets/Role-specific skills/B2C Growth Marketing (Ecommerce).xlsx
+++ b/Question_Sets/Role-specific skills/B2C Growth Marketing (Ecommerce).xlsx
@@ -16,23 +16,62 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "You are a newly hired growth marketing manager at a small eCommerce company. You are starting with the company's Digital Footprint diagnostics. You can only pick three areas to review in your first month.Which area should NOT be on your first priorities list?", 'ques_type': 2, 'options': ['SEO and search engine rankings', 'Website user journey', 'Social media impressions', 'Paid advertising'], 'score': 'Social media impressions'}, {'title': 'As head of growth, you learn the current website receives mostly cold traffic and net new visitors. Your marketing team developed two key messages (shown below).Message A describes the problems your products solve for the target audience. Message B describes the products your company sells. Which message should you integrate into your website’s hero space to create a strong first impression?', 'ques_type': 2, 'options': ['Message A', 'Message B'], 'score': 'Message A'}, {'title': 'You have been promoted to growth marketing director at a mid-sized eCommerce company. You are in charge of implementing a profitable long-term customer retention program.What new initiative should you implement?', 'ques_type': 2, 'options': ['Weekly newsletter and other email communications', 'Sending 50% off holiday coupons to customers', 'Product personalization based on customer reviews', 'A 20% discount for a first-time purchase'], 'score': 'Product personalization based on customer reviews'}, {'title': 'Which of the following are accurate and precise descriptions of a growth marketing funnel?', 'ques_type': 15, 'options': ['Awareness, interest, consideration, decision, purchase', 'Awareness, consideration, conversion, retention, advocacy', 'Attention, interest, desire, action', 'Acquisition, activation, retention, referral, revenue', 'Top of the funnel, middle of the funnel, bottom of the funnel'], 'score': ['Awareness, consideration, conversion, retention, advocacy', 'Acquisition, activation, retention, referral, revenue']}]</t>
+    <t>questions = [
+    {
+        "title": "You are a newly hired growth marketing manager at a small eCommerce company. You are starting with the company's Digital Footprint diagnostics. You can only pick three areas to review in your first month.Which area should NOT be on your first priorities list?",
+        "ques_type": 2,
+        "options": [
+            "SEO and search engine rankings",
+            "Website user journey",
+            "Social media impressions",
+            "Paid advertising"
+        ],
+        "score": "Social media impressions"
+    },
+    {
+        "title": "As head of growth, you learn the current website receives mostly cold traffic and net new visitors. Your marketing team developed two key messages (shown below).Message A describes the problems your products solve for the target audience. Message B describes the products your company sells. Which message should you integrate into your website\u2019s hero space to create a strong first impression?",
+        "ques_type": 2,
+        "options": [
+            "Message A",
+            "Message B"
+        ],
+        "score": "Message A"
+    },
+    {
+        "title": "You have been promoted to growth marketing director at a mid-sized eCommerce company. You are in charge of implementing a profitable long-term customer retention program.What new initiative should you implement?",
+        "ques_type": 2,
+        "options": [
+            "Weekly newsletter and other email communications",
+            "Sending 50% off holiday coupons to customers",
+            "Product personalization based on customer reviews",
+            "A 20% discount for a first-time purchase"
+        ],
+        "score": "Product personalization based on customer reviews"
+    },
+    {
+        "title": "Which of the following are accurate and precise descriptions of a growth marketing funnel?",
+        "ques_type": 15,
+        "options": [
+            "Awareness, interest, consideration, decision, purchase",
+            "Awareness, consideration, conversion, retention, advocacy",
+            "Attention, interest, desire, action",
+            "Acquisition, activation, retention, referral, revenue",
+            "Top of the funnel, middle of the funnel, bottom of the funnel"
+        ],
+        "score": [
+            "Awareness, consideration, conversion, retention, advocacy",
+            "Acquisition, activation, retention, referral, revenue"
+        ]
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +95,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +395,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
